--- a/biology/Médecine/AC_Immune/AC_Immune.xlsx
+++ b/biology/Médecine/AC_Immune/AC_Immune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 AC Immune est une start-up suisse spécialisée dans la compréhension et le traitement de la neurodégénérescence, créée en 2003.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société AC Immune est fondée à Lausanne le 13 février 2003 par Andrea Pfeifer et installée sur l'EPFL Innovation Park[2],[3].
-Il s'agit d'une société biopharmaceutique spécialiste des maladies neurodégénératives qui est cotée en bourse au Nasdaq depuis 2016[4].
-En 2023, plus de 350 millions de francs suisses ont été investis dans la recherche en 20 ans[5].
-L'entreprise vaudoise collabore avec les laboratoires Roche pour ces travaux de recherches contre la maladie d'Alzeimer[6]. L'objectif est de mettre sur le marché un vaccin pour lutter contre la maladie[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société AC Immune est fondée à Lausanne le 13 février 2003 par Andrea Pfeifer et installée sur l'EPFL Innovation Park,.
+Il s'agit d'une société biopharmaceutique spécialiste des maladies neurodégénératives qui est cotée en bourse au Nasdaq depuis 2016.
+En 2023, plus de 350 millions de francs suisses ont été investis dans la recherche en 20 ans.
+L'entreprise vaudoise collabore avec les laboratoires Roche pour ces travaux de recherches contre la maladie d'Alzeimer. L'objectif est de mettre sur le marché un vaccin pour lutter contre la maladie.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Chiffres clés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2023, l'entreprise emploie près de 150 salariés[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023, l'entreprise emploie près de 150 salariés.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Domaines d'application</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise fait de la recherche, notamment celle d'un vaccin contre Alzeimer[9],[10].
-De nombreuses expérimentations ont été menées sur près de 20 ans[11]. Des avancées sont perçues comme probantes[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise fait de la recherche, notamment celle d'un vaccin contre Alzeimer,.
+De nombreuses expérimentations ont été menées sur près de 20 ans. Des avancées sont perçues comme probantes.
 </t>
         </is>
       </c>
